--- a/bawi_list.xlsx
+++ b/bawi_list.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="133">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -677,6 +677,10 @@
   </si>
   <si>
     <t>bo_gil_do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;/p&gt;&lt;p class='article'&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -743,8 +747,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
@@ -752,14 +756,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1077,8 +1081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F680893-D02F-494D-9A84-45D7E5CC2049}">
   <dimension ref="B1:Z41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28:L28"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20:L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="49.9" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1094,6 +1098,9 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="2:26" ht="49.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N2" t="s">
+        <v>132</v>
+      </c>
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
@@ -1179,13 +1186,13 @@
         <v>107</v>
       </c>
       <c r="U5" s="2"/>
-      <c r="V5" s="1" t="s">
+      <c r="V5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="1"/>
-      <c r="Z5" s="1"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6"/>
     </row>
     <row r="6" spans="2:26" ht="49.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
@@ -1218,30 +1225,30 @@
         <v>108</v>
       </c>
       <c r="U6" s="2"/>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
-      <c r="Z6" s="1"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="6"/>
     </row>
     <row r="7" spans="2:26" ht="49.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4" t="s">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4" t="s">
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
       <c r="M7" s="3" t="s">
         <v>16</v>
       </c>
@@ -1251,10 +1258,10 @@
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
-      <c r="T7" s="4" t="s">
+      <c r="T7" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="U7" s="4"/>
+      <c r="U7" s="1"/>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
@@ -1262,23 +1269,23 @@
       <c r="Z7" s="2"/>
     </row>
     <row r="8" spans="2:26" ht="49.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4" t="s">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4" t="s">
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
       <c r="M8" s="3" t="s">
         <v>19</v>
       </c>
@@ -1288,10 +1295,10 @@
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
-      <c r="T8" s="4" t="s">
+      <c r="T8" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="U8" s="4"/>
+      <c r="U8" s="1"/>
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
@@ -1299,36 +1306,36 @@
       <c r="Z8" s="2"/>
     </row>
     <row r="9" spans="2:26" ht="49.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4" t="s">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4" t="s">
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="5" t="s">
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
-      <c r="T9" s="4" t="s">
+      <c r="T9" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="U9" s="4"/>
+      <c r="U9" s="1"/>
       <c r="V9" s="2" t="s">
         <v>21</v>
       </c>
@@ -1338,36 +1345,36 @@
       <c r="Z9" s="2"/>
     </row>
     <row r="10" spans="2:26" ht="49.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4" t="s">
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4" t="s">
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="5" t="s">
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
-      <c r="T10" s="4" t="s">
+      <c r="T10" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="U10" s="4"/>
+      <c r="U10" s="1"/>
       <c r="V10" s="2"/>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
@@ -1375,36 +1382,36 @@
       <c r="Z10" s="2"/>
     </row>
     <row r="11" spans="2:26" ht="49.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4" t="s">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4" t="s">
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="6" t="s">
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
-      <c r="T11" s="4" t="s">
+      <c r="T11" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="U11" s="4"/>
+      <c r="U11" s="1"/>
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
@@ -1412,23 +1419,23 @@
       <c r="Z11" s="2"/>
     </row>
     <row r="12" spans="2:26" ht="49.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4" t="s">
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4" t="s">
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
       <c r="M12" s="3" t="s">
         <v>35</v>
       </c>
@@ -1438,10 +1445,10 @@
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
-      <c r="T12" s="4" t="s">
+      <c r="T12" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="U12" s="4"/>
+      <c r="U12" s="1"/>
       <c r="V12" s="2"/>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
@@ -1449,36 +1456,36 @@
       <c r="Z12" s="2"/>
     </row>
     <row r="13" spans="2:26" ht="49.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4" t="s">
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4" t="s">
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="5" t="s">
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
-      <c r="T13" s="4" t="s">
+      <c r="T13" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="U13" s="4"/>
+      <c r="U13" s="1"/>
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
@@ -1486,23 +1493,23 @@
       <c r="Z13" s="2"/>
     </row>
     <row r="14" spans="2:26" ht="49.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4" t="s">
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4" t="s">
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
       <c r="M14" s="3" t="s">
         <v>43</v>
       </c>
@@ -1512,10 +1519,10 @@
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
-      <c r="T14" s="4" t="s">
+      <c r="T14" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="U14" s="4"/>
+      <c r="U14" s="1"/>
       <c r="V14" s="2"/>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
@@ -1523,23 +1530,23 @@
       <c r="Z14" s="2"/>
     </row>
     <row r="15" spans="2:26" ht="49.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4" t="s">
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4" t="s">
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
       <c r="M15" s="3" t="s">
         <v>46</v>
       </c>
@@ -1549,10 +1556,10 @@
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
-      <c r="T15" s="4" t="s">
+      <c r="T15" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="U15" s="4"/>
+      <c r="U15" s="1"/>
       <c r="V15" s="2"/>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
@@ -1560,16 +1567,16 @@
       <c r="Z15" s="2"/>
     </row>
     <row r="16" spans="2:26" ht="49.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4" t="s">
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
       <c r="H16" s="3" t="s">
         <v>50</v>
       </c>
@@ -1586,29 +1593,29 @@
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
       <c r="S16" s="2"/>
-      <c r="T16" s="4" t="s">
+      <c r="T16" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="U16" s="4"/>
-      <c r="V16" s="1" t="s">
+      <c r="U16" s="1"/>
+      <c r="V16" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="W16" s="1"/>
-      <c r="X16" s="1"/>
-      <c r="Y16" s="1"/>
-      <c r="Z16" s="1"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="6"/>
+      <c r="Y16" s="6"/>
+      <c r="Z16" s="6"/>
     </row>
     <row r="17" spans="2:26" ht="49.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4" t="s">
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
       <c r="H17" s="3" t="s">
         <v>50</v>
       </c>
@@ -1625,34 +1632,34 @@
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
-      <c r="T17" s="4" t="s">
+      <c r="T17" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="U17" s="4"/>
-      <c r="V17" s="1"/>
-      <c r="W17" s="1"/>
-      <c r="X17" s="1"/>
-      <c r="Y17" s="1"/>
-      <c r="Z17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="6"/>
+      <c r="Z17" s="6"/>
     </row>
     <row r="18" spans="2:26" ht="49.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4" t="s">
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4" t="s">
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
       <c r="M18" s="3" t="s">
         <v>57</v>
       </c>
@@ -1662,10 +1669,10 @@
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
       <c r="S18" s="2"/>
-      <c r="T18" s="4" t="s">
+      <c r="T18" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="U18" s="4"/>
+      <c r="U18" s="1"/>
       <c r="V18" s="2"/>
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
@@ -1673,23 +1680,23 @@
       <c r="Z18" s="2"/>
     </row>
     <row r="19" spans="2:26" ht="49.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4" t="s">
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4" t="s">
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
       <c r="M19" s="3" t="s">
         <v>61</v>
       </c>
@@ -1699,10 +1706,10 @@
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
       <c r="S19" s="2"/>
-      <c r="T19" s="4" t="s">
+      <c r="T19" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="U19" s="4"/>
+      <c r="U19" s="1"/>
       <c r="V19" s="2"/>
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
@@ -1710,23 +1717,23 @@
       <c r="Z19" s="2"/>
     </row>
     <row r="20" spans="2:26" ht="49.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4" t="s">
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4" t="s">
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
       <c r="M20" s="3" t="s">
         <v>66</v>
       </c>
@@ -1736,10 +1743,10 @@
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
       <c r="S20" s="2"/>
-      <c r="T20" s="4" t="s">
+      <c r="T20" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="U20" s="4"/>
+      <c r="U20" s="1"/>
       <c r="V20" s="3" t="s">
         <v>65</v>
       </c>
@@ -1749,23 +1756,23 @@
       <c r="Z20" s="2"/>
     </row>
     <row r="21" spans="2:26" ht="49.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4" t="s">
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4" t="s">
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
       <c r="M21" s="3" t="s">
         <v>74</v>
       </c>
@@ -1775,10 +1782,10 @@
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
       <c r="S21" s="2"/>
-      <c r="T21" s="4" t="s">
+      <c r="T21" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="U21" s="4"/>
+      <c r="U21" s="1"/>
       <c r="V21" s="3" t="s">
         <v>70</v>
       </c>
@@ -1788,99 +1795,99 @@
       <c r="Z21" s="2"/>
     </row>
     <row r="22" spans="2:26" ht="49.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4" t="s">
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4" t="s">
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="5" t="s">
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
       <c r="R22" s="2"/>
       <c r="S22" s="2"/>
-      <c r="T22" s="4" t="s">
+      <c r="T22" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="U22" s="4"/>
-      <c r="V22" s="1" t="s">
+      <c r="U22" s="1"/>
+      <c r="V22" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="W22" s="1"/>
-      <c r="X22" s="1"/>
-      <c r="Y22" s="1"/>
-      <c r="Z22" s="1"/>
+      <c r="W22" s="6"/>
+      <c r="X22" s="6"/>
+      <c r="Y22" s="6"/>
+      <c r="Z22" s="6"/>
     </row>
     <row r="23" spans="2:26" ht="49.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4" t="s">
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4" t="s">
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="5" t="s">
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
       <c r="R23" s="2"/>
       <c r="S23" s="2"/>
-      <c r="T23" s="4" t="s">
+      <c r="T23" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="U23" s="4"/>
-      <c r="V23" s="1"/>
-      <c r="W23" s="1"/>
-      <c r="X23" s="1"/>
-      <c r="Y23" s="1"/>
-      <c r="Z23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="6"/>
+      <c r="W23" s="6"/>
+      <c r="X23" s="6"/>
+      <c r="Y23" s="6"/>
+      <c r="Z23" s="6"/>
     </row>
     <row r="24" spans="2:26" ht="49.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4" t="s">
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4" t="s">
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
       <c r="M24" s="3" t="s">
         <v>84</v>
       </c>
@@ -1890,71 +1897,71 @@
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
       <c r="S24" s="2"/>
-      <c r="T24" s="4" t="s">
+      <c r="T24" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="U24" s="4"/>
-      <c r="V24" s="1"/>
-      <c r="W24" s="1"/>
-      <c r="X24" s="1"/>
-      <c r="Y24" s="1"/>
-      <c r="Z24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="6"/>
+      <c r="W24" s="6"/>
+      <c r="X24" s="6"/>
+      <c r="Y24" s="6"/>
+      <c r="Z24" s="6"/>
     </row>
     <row r="25" spans="2:26" ht="49.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4" t="s">
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4" t="s">
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="5" t="s">
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
       <c r="R25" s="2"/>
       <c r="S25" s="2"/>
-      <c r="T25" s="4" t="s">
+      <c r="T25" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="U25" s="4"/>
-      <c r="V25" s="1"/>
-      <c r="W25" s="1"/>
-      <c r="X25" s="1"/>
-      <c r="Y25" s="1"/>
-      <c r="Z25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="6"/>
+      <c r="W25" s="6"/>
+      <c r="X25" s="6"/>
+      <c r="Y25" s="6"/>
+      <c r="Z25" s="6"/>
     </row>
     <row r="26" spans="2:26" ht="49.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4" t="s">
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4" t="s">
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
       <c r="M26" s="3" t="s">
         <v>94</v>
       </c>
@@ -1964,10 +1971,10 @@
       <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
       <c r="S26" s="2"/>
-      <c r="T26" s="4" t="s">
+      <c r="T26" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="U26" s="4"/>
+      <c r="U26" s="1"/>
       <c r="V26" s="3" t="s">
         <v>92</v>
       </c>
@@ -1977,23 +1984,23 @@
       <c r="Z26" s="2"/>
     </row>
     <row r="27" spans="2:26" ht="49.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4" t="s">
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4" t="s">
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
       <c r="M27" s="3" t="s">
         <v>100</v>
       </c>
@@ -2003,10 +2010,10 @@
       <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
       <c r="S27" s="2"/>
-      <c r="T27" s="4" t="s">
+      <c r="T27" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="U27" s="4"/>
+      <c r="U27" s="1"/>
       <c r="V27" s="2"/>
       <c r="W27" s="2"/>
       <c r="X27" s="2"/>
@@ -2014,23 +2021,23 @@
       <c r="Z27" s="2"/>
     </row>
     <row r="28" spans="2:26" ht="49.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4" t="s">
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4" t="s">
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
       <c r="M28" s="3" t="s">
         <v>102</v>
       </c>
@@ -2040,10 +2047,10 @@
       <c r="Q28" s="2"/>
       <c r="R28" s="2"/>
       <c r="S28" s="2"/>
-      <c r="T28" s="4" t="s">
+      <c r="T28" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="U28" s="4"/>
+      <c r="U28" s="1"/>
       <c r="V28" s="2"/>
       <c r="W28" s="2"/>
       <c r="X28" s="2"/>
@@ -2051,23 +2058,23 @@
       <c r="Z28" s="2"/>
     </row>
     <row r="29" spans="2:26" ht="49.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
       <c r="E29" s="3" t="s">
         <v>105</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
-      <c r="H29" s="4" t="s">
+      <c r="H29" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
       <c r="M29" s="3" t="s">
         <v>104</v>
       </c>
@@ -2077,10 +2084,10 @@
       <c r="Q29" s="2"/>
       <c r="R29" s="2"/>
       <c r="S29" s="2"/>
-      <c r="T29" s="4" t="s">
+      <c r="T29" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="U29" s="4"/>
+      <c r="U29" s="1"/>
       <c r="V29" s="2"/>
       <c r="W29" s="2"/>
       <c r="X29" s="2"/>
@@ -2433,180 +2440,70 @@
     <filterColumn colId="23" showButton="0"/>
   </autoFilter>
   <mergeCells count="264">
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="M14:Q14"/>
-    <mergeCell ref="M15:Q15"/>
-    <mergeCell ref="M4:Q4"/>
-    <mergeCell ref="M5:Q5"/>
-    <mergeCell ref="M6:Q6"/>
-    <mergeCell ref="M7:Q7"/>
-    <mergeCell ref="M8:Q8"/>
-    <mergeCell ref="M9:Q9"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="M10:Q10"/>
-    <mergeCell ref="M11:Q11"/>
-    <mergeCell ref="M12:Q12"/>
-    <mergeCell ref="V1:Z1"/>
-    <mergeCell ref="V2:Z2"/>
-    <mergeCell ref="V3:Z3"/>
-    <mergeCell ref="V4:Z4"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="T5:U5"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="V13:Z13"/>
-    <mergeCell ref="V14:Z14"/>
-    <mergeCell ref="V15:Z15"/>
-    <mergeCell ref="V5:Z6"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="V7:Z7"/>
-    <mergeCell ref="V8:Z8"/>
-    <mergeCell ref="V9:Z9"/>
-    <mergeCell ref="V10:Z10"/>
-    <mergeCell ref="V11:Z11"/>
-    <mergeCell ref="V12:Z12"/>
-    <mergeCell ref="T15:U15"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="M13:Q13"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="H36:L36"/>
-    <mergeCell ref="H37:L37"/>
-    <mergeCell ref="H38:L38"/>
-    <mergeCell ref="H39:L39"/>
-    <mergeCell ref="H40:L40"/>
-    <mergeCell ref="H41:L41"/>
-    <mergeCell ref="H30:L30"/>
-    <mergeCell ref="H31:L31"/>
-    <mergeCell ref="H32:L32"/>
-    <mergeCell ref="H33:L33"/>
-    <mergeCell ref="H34:L34"/>
-    <mergeCell ref="H35:L35"/>
-    <mergeCell ref="M24:Q24"/>
-    <mergeCell ref="M25:Q25"/>
-    <mergeCell ref="M26:Q26"/>
-    <mergeCell ref="M27:Q27"/>
-    <mergeCell ref="M16:Q16"/>
-    <mergeCell ref="M17:Q17"/>
-    <mergeCell ref="M18:Q18"/>
-    <mergeCell ref="M19:Q19"/>
-    <mergeCell ref="M20:Q20"/>
-    <mergeCell ref="M21:Q21"/>
+    <mergeCell ref="V16:Z17"/>
+    <mergeCell ref="V22:Z25"/>
+    <mergeCell ref="V36:Z36"/>
+    <mergeCell ref="V37:Z37"/>
+    <mergeCell ref="V38:Z38"/>
+    <mergeCell ref="V39:Z39"/>
+    <mergeCell ref="V40:Z40"/>
+    <mergeCell ref="V41:Z41"/>
+    <mergeCell ref="V30:Z30"/>
+    <mergeCell ref="V31:Z31"/>
+    <mergeCell ref="V32:Z32"/>
+    <mergeCell ref="V33:Z33"/>
+    <mergeCell ref="V34:Z34"/>
+    <mergeCell ref="V35:Z35"/>
+    <mergeCell ref="V26:Z26"/>
+    <mergeCell ref="V27:Z27"/>
+    <mergeCell ref="V28:Z28"/>
+    <mergeCell ref="V29:Z29"/>
+    <mergeCell ref="T40:U40"/>
+    <mergeCell ref="T41:U41"/>
+    <mergeCell ref="V18:Z18"/>
+    <mergeCell ref="V19:Z19"/>
+    <mergeCell ref="V20:Z20"/>
+    <mergeCell ref="V21:Z21"/>
+    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="T35:U35"/>
+    <mergeCell ref="T36:U36"/>
+    <mergeCell ref="T37:U37"/>
+    <mergeCell ref="T38:U38"/>
+    <mergeCell ref="T39:U39"/>
+    <mergeCell ref="T28:U28"/>
+    <mergeCell ref="T29:U29"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="T31:U31"/>
+    <mergeCell ref="T32:U32"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="T22:U22"/>
+    <mergeCell ref="T23:U23"/>
+    <mergeCell ref="T24:U24"/>
+    <mergeCell ref="T25:U25"/>
+    <mergeCell ref="T26:U26"/>
+    <mergeCell ref="T27:U27"/>
+    <mergeCell ref="T18:U18"/>
+    <mergeCell ref="T19:U19"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="T21:U21"/>
+    <mergeCell ref="R36:S36"/>
+    <mergeCell ref="R37:S37"/>
+    <mergeCell ref="R38:S38"/>
+    <mergeCell ref="R24:S24"/>
+    <mergeCell ref="R25:S25"/>
+    <mergeCell ref="R26:S26"/>
+    <mergeCell ref="R27:S27"/>
+    <mergeCell ref="R28:S28"/>
+    <mergeCell ref="R29:S29"/>
+    <mergeCell ref="R39:S39"/>
+    <mergeCell ref="R40:S40"/>
+    <mergeCell ref="R41:S41"/>
+    <mergeCell ref="R30:S30"/>
+    <mergeCell ref="R31:S31"/>
+    <mergeCell ref="R32:S32"/>
+    <mergeCell ref="R33:S33"/>
+    <mergeCell ref="R34:S34"/>
+    <mergeCell ref="R35:S35"/>
     <mergeCell ref="M40:Q40"/>
     <mergeCell ref="M41:Q41"/>
     <mergeCell ref="R16:S16"/>
@@ -2631,72 +2528,182 @@
     <mergeCell ref="M33:Q33"/>
     <mergeCell ref="M22:Q22"/>
     <mergeCell ref="M23:Q23"/>
-    <mergeCell ref="R39:S39"/>
-    <mergeCell ref="R40:S40"/>
-    <mergeCell ref="R41:S41"/>
-    <mergeCell ref="R30:S30"/>
-    <mergeCell ref="R31:S31"/>
-    <mergeCell ref="R32:S32"/>
-    <mergeCell ref="R33:S33"/>
-    <mergeCell ref="R34:S34"/>
-    <mergeCell ref="R35:S35"/>
+    <mergeCell ref="M24:Q24"/>
+    <mergeCell ref="M25:Q25"/>
+    <mergeCell ref="M26:Q26"/>
+    <mergeCell ref="M27:Q27"/>
+    <mergeCell ref="M16:Q16"/>
+    <mergeCell ref="M17:Q17"/>
+    <mergeCell ref="M18:Q18"/>
+    <mergeCell ref="M19:Q19"/>
+    <mergeCell ref="M20:Q20"/>
+    <mergeCell ref="M21:Q21"/>
+    <mergeCell ref="H36:L36"/>
+    <mergeCell ref="H37:L37"/>
+    <mergeCell ref="H38:L38"/>
+    <mergeCell ref="H39:L39"/>
+    <mergeCell ref="H40:L40"/>
+    <mergeCell ref="H41:L41"/>
+    <mergeCell ref="H30:L30"/>
+    <mergeCell ref="H31:L31"/>
+    <mergeCell ref="H32:L32"/>
+    <mergeCell ref="H33:L33"/>
+    <mergeCell ref="H34:L34"/>
+    <mergeCell ref="H35:L35"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="V15:Z15"/>
+    <mergeCell ref="V5:Z6"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="V7:Z7"/>
+    <mergeCell ref="V8:Z8"/>
+    <mergeCell ref="V9:Z9"/>
+    <mergeCell ref="V10:Z10"/>
+    <mergeCell ref="V11:Z11"/>
+    <mergeCell ref="V12:Z12"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="M13:Q13"/>
     <mergeCell ref="T16:U16"/>
     <mergeCell ref="T17:U17"/>
-    <mergeCell ref="T18:U18"/>
-    <mergeCell ref="T19:U19"/>
-    <mergeCell ref="T20:U20"/>
-    <mergeCell ref="T21:U21"/>
-    <mergeCell ref="R36:S36"/>
-    <mergeCell ref="R37:S37"/>
-    <mergeCell ref="R38:S38"/>
-    <mergeCell ref="R24:S24"/>
-    <mergeCell ref="R25:S25"/>
-    <mergeCell ref="R26:S26"/>
-    <mergeCell ref="R27:S27"/>
-    <mergeCell ref="R28:S28"/>
-    <mergeCell ref="R29:S29"/>
-    <mergeCell ref="T40:U40"/>
-    <mergeCell ref="T41:U41"/>
-    <mergeCell ref="V18:Z18"/>
-    <mergeCell ref="V19:Z19"/>
-    <mergeCell ref="V20:Z20"/>
-    <mergeCell ref="V21:Z21"/>
-    <mergeCell ref="T34:U34"/>
-    <mergeCell ref="T35:U35"/>
-    <mergeCell ref="T36:U36"/>
-    <mergeCell ref="T37:U37"/>
-    <mergeCell ref="T38:U38"/>
-    <mergeCell ref="T39:U39"/>
-    <mergeCell ref="T28:U28"/>
-    <mergeCell ref="T29:U29"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="T31:U31"/>
-    <mergeCell ref="T32:U32"/>
-    <mergeCell ref="T33:U33"/>
-    <mergeCell ref="T22:U22"/>
-    <mergeCell ref="T23:U23"/>
-    <mergeCell ref="T24:U24"/>
-    <mergeCell ref="T25:U25"/>
-    <mergeCell ref="T26:U26"/>
-    <mergeCell ref="T27:U27"/>
-    <mergeCell ref="V16:Z17"/>
-    <mergeCell ref="V22:Z25"/>
-    <mergeCell ref="V36:Z36"/>
-    <mergeCell ref="V37:Z37"/>
-    <mergeCell ref="V38:Z38"/>
-    <mergeCell ref="V39:Z39"/>
-    <mergeCell ref="V40:Z40"/>
-    <mergeCell ref="V41:Z41"/>
-    <mergeCell ref="V30:Z30"/>
-    <mergeCell ref="V31:Z31"/>
-    <mergeCell ref="V32:Z32"/>
-    <mergeCell ref="V33:Z33"/>
-    <mergeCell ref="V34:Z34"/>
-    <mergeCell ref="V35:Z35"/>
-    <mergeCell ref="V26:Z26"/>
-    <mergeCell ref="V27:Z27"/>
-    <mergeCell ref="V28:Z28"/>
-    <mergeCell ref="V29:Z29"/>
+    <mergeCell ref="V1:Z1"/>
+    <mergeCell ref="V2:Z2"/>
+    <mergeCell ref="V3:Z3"/>
+    <mergeCell ref="V4:Z4"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="V13:Z13"/>
+    <mergeCell ref="V14:Z14"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="M10:Q10"/>
+    <mergeCell ref="M11:Q11"/>
+    <mergeCell ref="M12:Q12"/>
+    <mergeCell ref="M14:Q14"/>
+    <mergeCell ref="M15:Q15"/>
+    <mergeCell ref="M4:Q4"/>
+    <mergeCell ref="M5:Q5"/>
+    <mergeCell ref="M6:Q6"/>
+    <mergeCell ref="M7:Q7"/>
+    <mergeCell ref="M8:Q8"/>
+    <mergeCell ref="M9:Q9"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
